--- a/release-notes/2023-09/closed-bugs-sle-2023-09.xlsx
+++ b/release-notes/2023-09/closed-bugs-sle-2023-09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26903"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nio365.sharepoint.com/sites/IoTProgram/Shared Documents/ProjectDocuments/SystemLink 2023/2023.Q4 (v.23.8)(releasing out of Cycle 23.C3)/Common docs/Release Notes for SLE/SLE 2023-08 Release Notes - July iteration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markblack/repos/github/install-systemlink-enterprise/release-notes/2023-09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{0357FC32-4DB0-FA47-B55E-60093BEFF741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D54FDC06-F8AE-4816-A669-8484DA15B557}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E4297C-6CF7-AD4A-92E9-F0CBD7FB3434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="closed bugs in last iteration" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -65,9 +65,6 @@
     <t>userservices should fail it's readiness probe if the MongoDB connection is lost</t>
   </si>
   <si>
-    <t>Files tab for work orders scrolls the whole page</t>
-  </si>
-  <si>
     <t>SLE - German edit needed in main menu</t>
   </si>
   <si>
@@ -84,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -569,7 +566,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -925,18 +922,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="87.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -947,7 +944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2478340</v>
       </c>
@@ -958,7 +955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2501209</v>
       </c>
@@ -969,7 +966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2494285</v>
       </c>
@@ -980,7 +977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2467081</v>
       </c>
@@ -991,7 +988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2123334</v>
       </c>
@@ -1002,7 +999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2478519</v>
       </c>
@@ -1013,9 +1010,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>2442231</v>
+        <v>2481368</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -1024,9 +1021,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>2481368</v>
+        <v>2489265</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -1035,9 +1032,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>2489265</v>
+        <v>2474666</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -1046,25 +1043,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>2474666</v>
+        <v>2429342</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="1">
-        <v>2429342</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1077,26 +1063,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="8f35f8fb-94b8-4296-88b5-253c68a5f93d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC68938C25E75A48B38E3943F7278D4C" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f0f37ab8d3f2976c7f574248e95f352f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9" xmlns:ns3="8f35f8fb-94b8-4296-88b5-253c68a5f93d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f09f6485e9727c9ad290af4818380127" ns2:_="" ns3:_="">
     <xsd:import namespace="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9"/>
@@ -1339,14 +1305,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8f35f8fb-94b8-4296-88b5-253c68a5f93d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E6B2099-BF96-40FC-B6D0-611F0B5B8DEE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C8D9B7-F3F6-45A7-BFBE-15EE7C8A3987}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9"/>
+    <ds:schemaRef ds:uri="8f35f8fb-94b8-4296-88b5-253c68a5f93d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F5BA7BF-C649-45A8-BA98-72C6A48D6AFB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F5BA7BF-C649-45A8-BA98-72C6A48D6AFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C8D9B7-F3F6-45A7-BFBE-15EE7C8A3987}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E6B2099-BF96-40FC-B6D0-611F0B5B8DEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9"/>
+    <ds:schemaRef ds:uri="8f35f8fb-94b8-4296-88b5-253c68a5f93d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>